--- a/tests/resources/test_vfm_master_4_2019.xlsx
+++ b/tests/resources/test_vfm_master_4_2019.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="115">
   <si>
     <t xml:space="preserve">Project/Programme Name</t>
   </si>
@@ -356,6 +356,15 @@
   </si>
   <si>
     <t xml:space="preserve">Rail Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benefits Narrative </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hello is it me you’re looking for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please allow me to introduce myself I’m a man of wealth and taste.</t>
   </si>
 </sst>
 </file>
@@ -553,7 +562,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="63" zoomScaleNormal="63" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D74" activeCellId="0" sqref="D74"/>
+      <selection pane="bottomLeft" activeCell="B72" activeCellId="0" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1590,6 +1599,17 @@
       </c>
       <c r="G70" s="1" t="s">
         <v>111</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="1046681" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/tests/resources/test_vfm_master_4_2019.xlsx
+++ b/tests/resources/test_vfm_master_4_2019.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="116">
   <si>
     <t xml:space="preserve">Project/Programme Name</t>
   </si>
@@ -365,6 +365,9 @@
   </si>
   <si>
     <t xml:space="preserve">Please allow me to introduce myself I’m a man of wealth and taste.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GMPP - IPA ID Number</t>
   </si>
 </sst>
 </file>
@@ -562,7 +565,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="63" zoomScaleNormal="63" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B72" activeCellId="0" sqref="B72"/>
+      <selection pane="bottomLeft" activeCell="A72" activeCellId="0" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1610,6 +1613,11 @@
       </c>
       <c r="C71" s="1" t="s">
         <v>114</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="1046681" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
